--- a/biology/Botanique/Adolphe_Delessert/Adolphe_Delessert.xlsx
+++ b/biology/Botanique/Adolphe_Delessert/Adolphe_Delessert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe François Delessert (Cossonay (Suisse), 15 septembre 1809–Château de St-Barthelemy, Saint-Barthelemy (Suisse), 6 avril 1869) est un explorateur et naturaliste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Neveu de Benjamin Delessert, il décide de partir herboriser dans l'Asie du Sud-Est en 1834. Parti de Nantes le 24 avril 1834 avec un ami, George Samuel Perrottet, il fait escale à Madère et aux Canaries et arrive le 15 juillet à l'Île-de-France. Il commence ses travaux aux Mascareignes puis se rend à Pondichery.
 À la fin de l'année, il s'embarque pour les Indes néerlandaises, fait escale à Poulo-Penang dans le détroit de Malacca puis à Malacca. Il se rend ensuite à Singapour et arrive à Batavia le 27 janvier 1835 après avoir du affronter un terrible typhon.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Souvenirs d'un voyage dans l'Inde exécuté de 1834 à 1839, dédié à Benjamin Delessert, 1843</t>
         </is>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
